--- a/data/georgia_census/samegrelo/abasha/population_total.xlsx
+++ b/data/georgia_census/samegrelo/abasha/population_total.xlsx
@@ -1356,13 +1356,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E71A3A4-729F-4162-B9F5-A88A83C1A3E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56581680-EF0A-4C41-A2BE-C55649884B48}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FA4FE91-5A82-44DF-B50A-5498E4608141}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75DCA46A-855E-4D9C-8104-15F7DEC960B4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9622D657-D115-41E3-9CB4-CFD6D08D299E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584C488E-5301-4D8F-A140-5B985F35D918}"/>
 </file>